--- a/anc/v0.3.0/ValueSet-anc-b10-de102.xlsx
+++ b/anc/v0.3.0/ValueSet-anc-b10-de102.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T22:14:31+02:00</t>
+    <t>2025-07-10T11:54:36+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
